--- a/Dimension Tables/Trip Type Table.xlsx
+++ b/Dimension Tables/Trip Type Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\PowerBI Projects\NYC Trips Project\NYC-Trips-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\PowerBI Projects\Trips Project\NYC-Trips-Project\Dimension Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E996C091-C69F-4E8B-BAF0-E50C49946E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462DE74D-B276-4357-8EA3-BAD90D724C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DD0E47-8577-4078-A8A6-BF2EEC1DA9E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Code</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -103,8 +106,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00BACBBC-E1F0-472B-9B3E-8541B4E816AD}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{00BACBBC-E1F0-472B-9B3E-8541B4E816AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00BACBBC-E1F0-472B-9B3E-8541B4E816AD}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{00BACBBC-E1F0-472B-9B3E-8541B4E816AD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CCDC1C37-32B3-48F0-818D-53A951B57F75}" name="Code"/>
     <tableColumn id="2" xr3:uid="{D6606905-DED5-4428-9BC7-AFC65CC8D78E}" name="Type"/>
@@ -430,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC42AB5-66E8-468F-BAE3-EFBA0C4067C5}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -463,6 +466,14 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
